--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail9 Features.xlsx
@@ -4540,7 +4540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4551,29 +4551,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4594,115 +4592,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4719,72 +4707,66 @@
         <v>2.821151152462656e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.952711026120186</v>
+        <v>1.777616342784254e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.810994999946807</v>
+        <v>2.531934486520647e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.777616342784254e-06</v>
+        <v>0.07273599541815813</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.531934486520647e-06</v>
+        <v>0.2598360416858195</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07273599541815813</v>
+        <v>0.07270006908121741</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2598360416858195</v>
+        <v>1.866892458051334</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07270006908121741</v>
+        <v>2.02956505452012</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.844910617302728</v>
+        <v>3.913479898566665</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.02956505452012</v>
+        <v>7.931285812452036e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.913479898566665</v>
+        <v>203071724.1626125</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.931285812452036e-16</v>
+        <v>5.870616039120889e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>203071724.1626125</v>
+        <v>32.70713569690252</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.870616039120889e-07</v>
+        <v>0.0001910859723160168</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>32.70713569690252</v>
+        <v>10.24933433760117</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001910859723160168</v>
+        <v>1.394935392686915</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.24933433760117</v>
+        <v>0.02007336247681527</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.394935392686915</v>
+        <v>2.905722434206808</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02007336247681527</v>
+        <v>0.9591209132124842</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.905722434206808</v>
+        <v>1.582067504650316</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9591209132124842</v>
+        <v>68</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.582067504650316</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2173706813828503</v>
       </c>
     </row>
@@ -4799,72 +4781,66 @@
         <v>2.357977946719298e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.358700257362782</v>
+        <v>1.459669444051483e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.997456398315652</v>
+        <v>2.549591239140328e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.459669444051483e-06</v>
+        <v>0.0639235596716152</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.549591239140328e-06</v>
+        <v>0.2638278268796699</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0639235596716152</v>
+        <v>0.0736019883299206</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2638278268796699</v>
+        <v>1.855549596857234</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0736019883299206</v>
+        <v>1.97854132644555</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.837226598757475</v>
+        <v>3.858162983546383</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.97854132644555</v>
+        <v>8.160347917934242e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.858162983546383</v>
+        <v>189918105.3090188</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.160347917934242e-16</v>
+        <v>6.207578089244905e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>189918105.3090188</v>
+        <v>29.43346646817668</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.207578089244905e-07</v>
+        <v>0.000187931024113662</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>29.43346646817668</v>
+        <v>9.052081313289229</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000187931024113662</v>
+        <v>1.643505080904171</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.052081313289229</v>
+        <v>0.01539910121097786</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.643505080904171</v>
+        <v>2.97543250430248</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01539910121097786</v>
+        <v>0.9557366747162929</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.97543250430248</v>
+        <v>1.588949106618656</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9557366747162929</v>
+        <v>47</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.588949106618656</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.202327313585814</v>
       </c>
     </row>
@@ -4879,72 +4855,66 @@
         <v>2.030714968651578e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.6757793794267553</v>
+        <v>1.214790844144808e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.150710847756461</v>
+        <v>2.562470839590917e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.214790844144808e-06</v>
+        <v>0.05363935278232731</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.562470839590917e-06</v>
+        <v>0.2684898310243967</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.05363935278232731</v>
+        <v>0.07489040053938315</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2684898310243967</v>
+        <v>1.85510402509209</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.07489040053938315</v>
+        <v>2.017496148211125</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.830168238535283</v>
+        <v>3.710976743194443</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.017496148211125</v>
+        <v>8.820502959926882e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.710976743194443</v>
+        <v>175543840.9356889</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.820502959926882e-16</v>
+        <v>6.738876712181209e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>175543840.9356889</v>
+        <v>27.1809444629895</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.738876712181209e-07</v>
+        <v>0.000162021105537751</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>27.1809444629895</v>
+        <v>9.900935248406176</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000162021105537751</v>
+        <v>1.284932358083085</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.900935248406176</v>
+        <v>0.01588268898909142</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.284932358083085</v>
+        <v>2.965192604394384</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01588268898909142</v>
+        <v>0.9563285974858378</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.965192604394384</v>
+        <v>1.558670268241784</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9563285974858378</v>
+        <v>14</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.558670268241784</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2060737237441833</v>
       </c>
     </row>
@@ -4959,72 +4929,66 @@
         <v>1.810647699206433e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.01716400987246177</v>
+        <v>1.018519699666164e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.6308030600470427</v>
+        <v>2.571645279702698e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.018519699666164e-06</v>
+        <v>0.04195316102689955</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.571645279702698e-06</v>
+        <v>0.269935942446189</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04195316102689955</v>
+        <v>0.07456171389490818</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.269935942446189</v>
+        <v>1.852388809206103</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07456171389490818</v>
+        <v>1.941905846794047</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.825391603707028</v>
+        <v>3.534787778148599</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.941905846794047</v>
+        <v>1.018174144370891e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.534787778148599</v>
+        <v>152068137.9833938</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.018174144370891e-15</v>
+        <v>7.783305480966262e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>152068137.9833938</v>
+        <v>23.54499056392262</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.783305480966262e-07</v>
+        <v>0.0001666332121780041</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>23.54499056392262</v>
+        <v>11.86976416513849</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001666332121780041</v>
+        <v>1.079097018767559</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.86976416513849</v>
+        <v>0.02347717010955777</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.079097018767559</v>
+        <v>2.765272162943415</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02347717010955777</v>
+        <v>0.9559871570115396</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.765272162943415</v>
+        <v>1.568710144619827</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9559871570115396</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.568710144619827</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2103793168860658</v>
       </c>
     </row>
@@ -5039,72 +5003,66 @@
         <v>1.676982350346206e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4669821031044423</v>
+        <v>8.488165561208099e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2270273178518085</v>
+        <v>2.577822797492325e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.488165561208099e-07</v>
+        <v>0.02889372786588965</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.577822797492325e-06</v>
+        <v>0.2628343737317365</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02889372786588965</v>
+        <v>0.06985525586348398</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2628343737317365</v>
+        <v>1.845358088820676</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06985525586348398</v>
+        <v>1.845470220988211</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.819044337857716</v>
+        <v>3.627240425256908</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.845470220988211</v>
+        <v>1.241002785812987e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.627240425256908</v>
+        <v>126930115.8342038</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.241002785812987e-15</v>
+        <v>9.305060552221854e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>126930115.8342038</v>
+        <v>19.99411147629582</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.305060552221854e-07</v>
+        <v>0.0001855004129431531</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>19.99411147629582</v>
+        <v>12.78274027712151</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001855004129431531</v>
+        <v>1.039404992411614</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.78274027712151</v>
+        <v>0.03031047976235065</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.039404992411614</v>
+        <v>2.646903235966567</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03031047976235065</v>
+        <v>0.9552968117510113</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.646903235966567</v>
+        <v>1.574912060932903</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9552968117510113</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.574912060932903</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2088360115256062</v>
       </c>
     </row>
@@ -5119,72 +5077,66 @@
         <v>1.612377823817891e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6948863026137603</v>
+        <v>6.8680722897497e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.460274776588276</v>
+        <v>2.58138502843364e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.8680722897497e-07</v>
+        <v>0.01426418414298704</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.58138502843364e-06</v>
+        <v>0.2421916400530039</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01426418414298704</v>
+        <v>0.05879372800345822</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2421916400530039</v>
+        <v>1.772187470572249</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05879372800345822</v>
+        <v>1.777759319252548</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.725817026256632</v>
+        <v>3.747225229217833</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.777759319252548</v>
+        <v>1.316741300939843e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.747225229217833</v>
+        <v>120695900.4582235</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.316741300939843e-15</v>
+        <v>9.601631799167339e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>120695900.4582235</v>
+        <v>19.18162941157492</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.601631799167339e-07</v>
+        <v>0.0002153553810087806</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>19.18162941157492</v>
+        <v>12.26896414136672</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002153553810087806</v>
+        <v>1.148132611283101</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.26896414136672</v>
+        <v>0.03241690304504392</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.148132611283101</v>
+        <v>2.578708921650681</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03241690304504392</v>
+        <v>0.950271012679051</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.578708921650681</v>
+        <v>1.650400841247998</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.950271012679051</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.650400841247998</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2034003339391494</v>
       </c>
     </row>
@@ -5561,7 +5513,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.893013860963059</v>
+        <v>2.004869333722759</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5.394160366591072</v>
@@ -5650,7 +5602,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.892167673960091</v>
+        <v>2.004934940529837</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.368817008071142</v>
@@ -5739,7 +5691,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.897687605273849</v>
+        <v>2.016703389080476</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.837053403128339</v>
@@ -5828,7 +5780,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.899103441151903</v>
+        <v>2.019944028208336</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.358974042595322</v>
@@ -5917,7 +5869,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.903735878124088</v>
+        <v>2.021203234104737</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.653708229146448</v>
@@ -6006,7 +5958,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.905618982412205</v>
+        <v>2.021137547029996</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.406326341896504</v>
@@ -6095,7 +6047,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.904507971403741</v>
+        <v>2.018338690462681</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.081772320814454</v>
@@ -6184,7 +6136,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.902032513514005</v>
+        <v>2.012268373201052</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.00925297939864</v>
@@ -6273,7 +6225,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.904463437432486</v>
+        <v>2.015697757449568</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.83082635109958</v>
@@ -6362,7 +6314,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.908485229660225</v>
+        <v>2.021682348665208</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.672342508648293</v>
@@ -6451,7 +6403,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.911446495336397</v>
+        <v>2.02455697259049</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.9100354615662</v>
@@ -6540,7 +6492,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.910476789544062</v>
+        <v>2.020934028897167</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.081910999491743</v>
@@ -6629,7 +6581,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.910315842526982</v>
+        <v>2.018799586043158</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.840700690645328</v>
@@ -6718,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.907843183392626</v>
+        <v>2.019851660773778</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.646371523868147</v>
@@ -6807,7 +6759,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.90736320260231</v>
+        <v>2.017164793707618</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.907442034613076</v>
@@ -6896,7 +6848,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.905325571918367</v>
+        <v>2.013053831771212</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.709568733047805</v>
@@ -6985,7 +6937,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.906287901650787</v>
+        <v>2.014796033056304</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.326356926722337</v>
@@ -7074,7 +7026,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.905470329232847</v>
+        <v>2.013709617561807</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.663649995603888</v>
@@ -7163,7 +7115,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.905371507819271</v>
+        <v>2.012677595633268</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.664112249409261</v>
@@ -7252,7 +7204,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.904085242255985</v>
+        <v>2.013062155456846</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.025798291459943</v>
@@ -7341,7 +7293,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.901015134247259</v>
+        <v>2.009408621724736</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.261224157895105</v>
@@ -7430,7 +7382,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.901721341829506</v>
+        <v>2.00911308942539</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.226686133308472</v>
@@ -7519,7 +7471,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.902865500522765</v>
+        <v>2.012326158798757</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.498118398643797</v>
@@ -7608,7 +7560,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.897842994086389</v>
+        <v>2.006851229142307</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.377108599203637</v>
@@ -7697,7 +7649,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.897011007670187</v>
+        <v>2.005798571980165</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.638475747170403</v>
@@ -7786,7 +7738,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.898607223647738</v>
+        <v>2.013002363937058</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.478733951816537</v>
@@ -7875,7 +7827,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.899532831660328</v>
+        <v>2.01427427030576</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.748841988104224</v>
@@ -7964,7 +7916,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.903735241609958</v>
+        <v>2.012871576650191</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.503203570302509</v>
@@ -8053,7 +8005,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.908574134302518</v>
+        <v>2.012989424203163</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.286253969764992</v>
@@ -8142,7 +8094,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.91097662371538</v>
+        <v>2.015542327715683</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.162320813397598</v>
@@ -8231,7 +8183,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.91406427272088</v>
+        <v>2.020329844389774</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.076646535563936</v>
@@ -8320,7 +8272,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.917195932985754</v>
+        <v>2.023502741025559</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.957759703266659</v>
@@ -8409,7 +8361,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.918036693834482</v>
+        <v>2.023325630996687</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.144693399307675</v>
@@ -8498,7 +8450,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.919366520507414</v>
+        <v>2.027193309833755</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.314748221548443</v>
@@ -8587,7 +8539,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.919308446664557</v>
+        <v>2.027635596599369</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.068086664720011</v>
@@ -8676,7 +8628,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.923956773191825</v>
+        <v>2.033551261727476</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.894388692368815</v>
@@ -8765,7 +8717,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.933556870149873</v>
+        <v>2.037909518548643</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.676202906849896</v>
@@ -8854,7 +8806,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.938514768779233</v>
+        <v>2.039891749334656</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.266008060111194</v>
@@ -8943,7 +8895,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.938853376143408</v>
+        <v>2.038716812357854</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.689310232956823</v>
@@ -9032,7 +8984,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.930620474079513</v>
+        <v>2.029812057556032</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.179626387109855</v>
@@ -9121,7 +9073,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.919675948563046</v>
+        <v>2.017299079454096</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.078473153829063</v>
@@ -9210,7 +9162,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.915695251888641</v>
+        <v>2.013848285867632</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.059300605698585</v>
@@ -9299,7 +9251,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.904455503757875</v>
+        <v>2.009115694691231</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.286812754055646</v>
@@ -9388,7 +9340,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.896360784769433</v>
+        <v>2.006867417523755</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.244209818084582</v>
@@ -9477,7 +9429,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.894786110895937</v>
+        <v>2.005546800180177</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.190141216739505</v>
@@ -9566,7 +9518,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.892071373871181</v>
+        <v>2.004452847653156</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.027232081139648</v>
@@ -9655,7 +9607,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.886929942679133</v>
+        <v>1.99669611394178</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.017653969717302</v>
@@ -9744,7 +9696,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.880787165178172</v>
+        <v>1.994353120131583</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.491340887792441</v>
@@ -9833,7 +9785,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.872555167194161</v>
+        <v>1.98581188249243</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.316395103434026</v>
@@ -9922,7 +9874,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.864392104417351</v>
+        <v>1.975615573280294</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.249563321311046</v>
@@ -10011,7 +9963,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.85298448494019</v>
+        <v>1.970939752580676</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.272038960634277</v>
@@ -10297,7 +10249,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.914618111473603</v>
+        <v>2.012790785312582</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.88941486223549</v>
@@ -10386,7 +10338,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.912334226670896</v>
+        <v>2.017089477690247</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.835583260501533</v>
@@ -10475,7 +10427,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.91617546279734</v>
+        <v>2.021384030319018</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.636839351384552</v>
@@ -10564,7 +10516,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.913157728211851</v>
+        <v>2.018910538997816</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.814071024776748</v>
@@ -10653,7 +10605,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.915308191800079</v>
+        <v>2.017135761287708</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.046300777686287</v>
@@ -10742,7 +10694,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.918686239377368</v>
+        <v>2.020752625110722</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.577481746938838</v>
@@ -10831,7 +10783,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.91445477586939</v>
+        <v>2.014879690160995</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.63461985721343</v>
@@ -10920,7 +10872,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.915802825210993</v>
+        <v>2.021696716632467</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.923204441796765</v>
@@ -11009,7 +10961,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.915006526911823</v>
+        <v>2.02376755679207</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.826243079082787</v>
@@ -11098,7 +11050,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.916661379832761</v>
+        <v>2.024741456836514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.559091693441819</v>
@@ -11187,7 +11139,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.91881015041095</v>
+        <v>2.0249179266508</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.658539022640877</v>
@@ -11276,7 +11228,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.918938857004603</v>
+        <v>2.024031966891195</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.282817254074419</v>
@@ -11365,7 +11317,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.919587748251907</v>
+        <v>2.01970139482205</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.436660419928073</v>
@@ -11454,7 +11406,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.916883696009752</v>
+        <v>2.015991537126046</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.263895785652695</v>
@@ -11543,7 +11495,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.913296460142912</v>
+        <v>2.010984603018555</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.410728284979754</v>
@@ -11632,7 +11584,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.912101066785046</v>
+        <v>2.01062805529585</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.355020672513294</v>
@@ -11721,7 +11673,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.911756016891689</v>
+        <v>2.009850948354048</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.329334705294733</v>
@@ -11810,7 +11762,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.911014370618298</v>
+        <v>2.008925197982182</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.229656737251466</v>
@@ -11899,7 +11851,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.913924587448715</v>
+        <v>2.009353816099225</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.113801043477689</v>
@@ -11988,7 +11940,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.912866309000615</v>
+        <v>2.012163221764916</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.486360523668177</v>
@@ -12077,7 +12029,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.909966157312816</v>
+        <v>2.01199345830435</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.784869247460717</v>
@@ -12166,7 +12118,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.913937246825865</v>
+        <v>2.014462897004463</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.972837230823695</v>
@@ -12255,7 +12207,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.914627957211591</v>
+        <v>2.015574187703856</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.717216449513874</v>
@@ -12344,7 +12296,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.913771927117028</v>
+        <v>2.011898784009433</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.083796497137759</v>
@@ -12433,7 +12385,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.911517307055823</v>
+        <v>2.005192736316032</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.35530776511995</v>
@@ -12522,7 +12474,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.909678712766408</v>
+        <v>2.004936183979507</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.913458412730844</v>
@@ -12611,7 +12563,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.913876337870443</v>
+        <v>2.002918416194897</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.311369705861339</v>
@@ -12700,7 +12652,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.912804097522879</v>
+        <v>1.999180649627416</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.266483015604368</v>
@@ -12789,7 +12741,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.915444959833402</v>
+        <v>2.001361786821203</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.438030100873042</v>
@@ -12878,7 +12830,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.92147484764421</v>
+        <v>2.008093447623293</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.611811750071264</v>
@@ -12967,7 +12919,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.922879708124451</v>
+        <v>2.006697258435308</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.993656112631539</v>
@@ -13056,7 +13008,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.925561032852839</v>
+        <v>2.008877870348457</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.702203565700641</v>
@@ -13145,7 +13097,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.929753251534685</v>
+        <v>2.017087480885563</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.587153305655222</v>
@@ -13234,7 +13186,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.923953591573894</v>
+        <v>2.013135786643121</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.923170073720068</v>
@@ -13323,7 +13275,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.923756403061892</v>
+        <v>2.012376670514279</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.353515443868371</v>
@@ -13412,7 +13364,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.928690398345954</v>
+        <v>2.019246509172276</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.188583806558036</v>
@@ -13501,7 +13453,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.935068011429366</v>
+        <v>2.024205934228686</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.31682238657855</v>
@@ -13590,7 +13542,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.934662975978651</v>
+        <v>2.020836612992694</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.389881859608068</v>
@@ -13679,7 +13631,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.935893368814779</v>
+        <v>2.021653734264341</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.19600117897465</v>
@@ -13768,7 +13720,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.932773993075724</v>
+        <v>2.023067667197329</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.473168428142983</v>
@@ -13857,7 +13809,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.921743936660003</v>
+        <v>2.012355596910205</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.815667275632871</v>
@@ -13946,7 +13898,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.915805652892813</v>
+        <v>2.010316922311938</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.082130865185513</v>
@@ -14035,7 +13987,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.915238641656198</v>
+        <v>2.015488286440843</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.135677140910323</v>
@@ -14124,7 +14076,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.911674214204565</v>
+        <v>2.013481713275857</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.890777789797007</v>
@@ -14213,7 +14165,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.915164473363101</v>
+        <v>2.018917633563022</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.187411183059902</v>
@@ -14302,7 +14254,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.919042798242405</v>
+        <v>2.025563907350166</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.710824498654946</v>
@@ -14391,7 +14343,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.91584241531236</v>
+        <v>2.02127322835115</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.837213876366369</v>
@@ -14480,7 +14432,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.907148970713307</v>
+        <v>2.015460245248413</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.640702285335705</v>
@@ -14569,7 +14521,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.906718796409335</v>
+        <v>2.017501187022617</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.730677802242888</v>
@@ -14658,7 +14610,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.897925168409134</v>
+        <v>2.008483581872761</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.638443314012443</v>
@@ -14747,7 +14699,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.888442876594081</v>
+        <v>2.003765980083692</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.956976778399655</v>
@@ -15033,7 +14985,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.23564516640717</v>
+        <v>2.238305429111378</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>14.72497527950051</v>
@@ -15122,7 +15074,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.231270721856358</v>
+        <v>2.237967085962631</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>9.737480267964282</v>
@@ -15211,7 +15163,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.228373359686006</v>
+        <v>2.237447300253737</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>12.97070031669207</v>
@@ -15300,7 +15252,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.228113941888592</v>
+        <v>2.238121975367966</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>12.02941986691758</v>
@@ -15389,7 +15341,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.227369870798736</v>
+        <v>2.239094305039429</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>8.548701533439591</v>
@@ -15478,7 +15430,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.2299627927268</v>
+        <v>2.239491573392799</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>7.334275513201487</v>
@@ -15567,7 +15519,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.228688126263234</v>
+        <v>2.238768368222521</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>6.862047145819672</v>
@@ -15656,7 +15608,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.226928485679747</v>
+        <v>2.238452752989124</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>7.377954596829231</v>
@@ -15745,7 +15697,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.22600504821273</v>
+        <v>2.238187703069219</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>8.492887921373311</v>
@@ -15834,7 +15786,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.226039026986167</v>
+        <v>2.238303947495878</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>8.632845824064505</v>
@@ -15923,7 +15875,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.224584445256175</v>
+        <v>2.238182828576654</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>8.055695150193108</v>
@@ -16012,7 +15964,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.221783865609205</v>
+        <v>2.237919649231495</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>8.630986158705873</v>
@@ -16101,7 +16053,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.22236525489749</v>
+        <v>2.238169687580791</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>11.35812144639303</v>
@@ -16190,7 +16142,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.226772158042557</v>
+        <v>2.238630366148259</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>15.01474228429141</v>
@@ -16279,7 +16231,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.222918137673503</v>
+        <v>2.23763283139907</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>8.493101478550365</v>
@@ -16368,7 +16320,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.222418589017761</v>
+        <v>2.238072230090196</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>8.78675960115574</v>
@@ -16457,7 +16409,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.222504541948175</v>
+        <v>2.237923671267243</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>9.010162534348224</v>
@@ -16546,7 +16498,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.224901301416569</v>
+        <v>2.238104016536826</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>8.497348298319016</v>
@@ -16635,7 +16587,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.224736092028511</v>
+        <v>2.238717594726268</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>6.906659059307744</v>
@@ -16724,7 +16676,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.227329150779143</v>
+        <v>2.238517733970602</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>6.781189335648688</v>
@@ -16813,7 +16765,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.226691977029876</v>
+        <v>2.237607395371016</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.966659047691538</v>
@@ -16902,7 +16854,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.222240542320113</v>
+        <v>2.237037231370947</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>6.70911793358736</v>
@@ -16991,7 +16943,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.221921608924852</v>
+        <v>2.236364975357207</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>11.04101718595339</v>
@@ -17080,7 +17032,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.220879300577186</v>
+        <v>2.237007416733822</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>12.90418251012147</v>
@@ -17169,7 +17121,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.220981220093002</v>
+        <v>2.236614638813825</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>15.39051078911387</v>
@@ -17258,7 +17210,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.223899652700122</v>
+        <v>2.237257263051161</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>10.14636386390359</v>
@@ -17347,7 +17299,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.216736805878735</v>
+        <v>2.236083795339188</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>7.935264375671993</v>
@@ -17436,7 +17388,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.192953650301305</v>
+        <v>2.227072158170514</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>7.40787766807847</v>
@@ -17525,7 +17477,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.173105488594159</v>
+        <v>2.220907880188681</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>7.014707014263198</v>
@@ -17614,7 +17566,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.155728589191748</v>
+        <v>2.213787814402645</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>6.782994386098706</v>
@@ -17703,7 +17655,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.150257652435572</v>
+        <v>2.212651787527064</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>7.084596724455545</v>
@@ -17792,7 +17744,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.148470562834099</v>
+        <v>2.211760037705973</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>7.560896004975416</v>
@@ -17881,7 +17833,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.141736673871503</v>
+        <v>2.209788504857234</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>8.562616333692212</v>
@@ -17970,7 +17922,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.139229520423469</v>
+        <v>2.208969941662632</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>9.108587920736435</v>
@@ -18059,7 +18011,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.134156199998358</v>
+        <v>2.207238238272831</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>10.86169650892048</v>
@@ -18148,7 +18100,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.131508409506002</v>
+        <v>2.206823995006808</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>7.442512406355058</v>
@@ -18237,7 +18189,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.135250928871845</v>
+        <v>2.20808855673969</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>6.88224378725269</v>
@@ -18326,7 +18278,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.136635118028459</v>
+        <v>2.208808719652722</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>6.377354564059748</v>
@@ -18415,7 +18367,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.134542819356741</v>
+        <v>2.207146887508771</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.37720614363668</v>
@@ -18504,7 +18456,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.127511897672114</v>
+        <v>2.205850410440046</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.964523625486998</v>
@@ -18593,7 +18545,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.121733443500362</v>
+        <v>2.202629158494966</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>6.964349329780271</v>
@@ -18682,7 +18634,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.118942226990641</v>
+        <v>2.202217395055514</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.624398721782402</v>
@@ -18771,7 +18723,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.131094975053347</v>
+        <v>2.207944926787744</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>6.761866506322065</v>
@@ -18860,7 +18812,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.142122614355273</v>
+        <v>2.212002109920019</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>7.380883999745537</v>
@@ -18949,7 +18901,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.158931345427233</v>
+        <v>2.218153580077004</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>9.472789817643044</v>
@@ -19038,7 +18990,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.157206942447521</v>
+        <v>2.216504771389719</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>6.01774658967273</v>
@@ -19127,7 +19079,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.157236750243228</v>
+        <v>2.216723591548956</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.52962503430783</v>
@@ -19216,7 +19168,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.157605822431176</v>
+        <v>2.21632486211481</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>8.063214353798061</v>
@@ -19305,7 +19257,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.152309725064452</v>
+        <v>2.215600801950993</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>7.608700941151241</v>
@@ -19394,7 +19346,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.150548523852789</v>
+        <v>2.215729622747257</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>7.066314154178333</v>
@@ -19483,7 +19435,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.148208912127452</v>
+        <v>2.213710509712601</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.542629194803414</v>
@@ -19769,7 +19721,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.894476609055564</v>
+        <v>1.969239355017983</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.733133216506137</v>
@@ -19858,7 +19810,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.89304803233545</v>
+        <v>1.960418631098978</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.403803235970593</v>
@@ -19947,7 +19899,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.88705451703713</v>
+        <v>1.952028521715903</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.698959856085242</v>
@@ -20036,7 +19988,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.883063785163481</v>
+        <v>1.939719518611664</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.902999896069222</v>
@@ -20125,7 +20077,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.878838730896856</v>
+        <v>1.93769350722251</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.439280808711247</v>
@@ -20214,7 +20166,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.87417391908746</v>
+        <v>1.93444351451351</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.39791908382858</v>
@@ -20303,7 +20255,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.87656139216811</v>
+        <v>1.939387185960934</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.977761499704588</v>
@@ -20392,7 +20344,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.882576350459722</v>
+        <v>1.943028275803431</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.109602033933744</v>
@@ -20481,7 +20433,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.882153067719352</v>
+        <v>1.943619154211671</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.02018613366796</v>
@@ -20570,7 +20522,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.882061956102307</v>
+        <v>1.942606144050487</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.074336117253335</v>
@@ -20659,7 +20611,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.883318598358115</v>
+        <v>1.943671526961007</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.87191337463648</v>
@@ -20748,7 +20700,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.88818293182775</v>
+        <v>1.948614696220192</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.131193309645974</v>
@@ -20837,7 +20789,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.88452497226997</v>
+        <v>1.948575496073465</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.161686933728454</v>
@@ -20926,7 +20878,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.878817374806162</v>
+        <v>1.948625589647334</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.478007937269934</v>
@@ -21015,7 +20967,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.880367262001174</v>
+        <v>1.948356740764809</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.70769272634642</v>
@@ -21104,7 +21056,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.884626224476196</v>
+        <v>1.950409528965857</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.839549036784257</v>
@@ -21193,7 +21145,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.882055488869903</v>
+        <v>1.947397196142222</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.649028979777258</v>
@@ -21282,7 +21234,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.87756525703095</v>
+        <v>1.945823647582147</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.646103186714828</v>
@@ -21371,7 +21323,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.879797646176707</v>
+        <v>1.948741379316533</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.370510796261951</v>
@@ -21460,7 +21412,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.881911398243024</v>
+        <v>1.951991648932822</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.580921455945276</v>
@@ -21549,7 +21501,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.885566927776391</v>
+        <v>1.953785082350815</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.447769805966741</v>
@@ -21638,7 +21590,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.884791406988152</v>
+        <v>1.949893515284783</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.04388557511069</v>
@@ -21727,7 +21679,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.885904939266553</v>
+        <v>1.947522875018423</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.041772052861342</v>
@@ -21816,7 +21768,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.886336806257186</v>
+        <v>1.947518141207867</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.279307051330277</v>
@@ -21905,7 +21857,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.88728356301481</v>
+        <v>1.946340943377357</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.651104855088963</v>
@@ -21994,7 +21946,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.880144435410659</v>
+        <v>1.943858568005376</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.308641741428107</v>
@@ -22083,7 +22035,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.882092099623065</v>
+        <v>1.946975086944821</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.465623179954052</v>
@@ -22172,7 +22124,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.887827093832721</v>
+        <v>1.955133038041951</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.645173572038733</v>
@@ -22261,7 +22213,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.890416975109925</v>
+        <v>1.956085962680906</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.948734846023508</v>
@@ -22350,7 +22302,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.897363467400111</v>
+        <v>1.966158683790607</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.617875585689721</v>
@@ -22439,7 +22391,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.895792073750908</v>
+        <v>1.963998658879389</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.799312284996538</v>
@@ -22528,7 +22480,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.89128048808284</v>
+        <v>1.96187877341281</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.12875400743536</v>
@@ -22617,7 +22569,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.894053193856755</v>
+        <v>1.964282220311345</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.283037602001126</v>
@@ -22706,7 +22658,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.896236132800296</v>
+        <v>1.965311250839304</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.050887998158477</v>
@@ -22795,7 +22747,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.897736116495377</v>
+        <v>1.965290767954376</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.364912622848457</v>
@@ -22884,7 +22836,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.898601716557065</v>
+        <v>1.964336892067484</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.551593381274088</v>
@@ -22973,7 +22925,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.89794421441538</v>
+        <v>1.968116066807381</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.544646393855044</v>
@@ -23062,7 +23014,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.899671589318639</v>
+        <v>1.977231367820595</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.088115223094702</v>
@@ -23151,7 +23103,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.903564674622472</v>
+        <v>1.984475190654399</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.012151636578483</v>
@@ -23240,7 +23192,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.906149842285265</v>
+        <v>1.989906086265645</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.095082389150374</v>
@@ -23329,7 +23281,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.921263156550826</v>
+        <v>2.004755610313376</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.75199966590788</v>
@@ -23418,7 +23370,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.940500375599989</v>
+        <v>2.019768810818501</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.996839548097527</v>
@@ -23507,7 +23459,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.952058991321677</v>
+        <v>2.029919354463312</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5.676390524636265</v>
@@ -23596,7 +23548,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.963523454770971</v>
+        <v>2.040813573168688</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>6.025997138819164</v>
@@ -23685,7 +23637,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.972874308134651</v>
+        <v>2.049605678484192</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>6.133887062319358</v>
@@ -23774,7 +23726,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.985883960886461</v>
+        <v>2.063115471381077</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>6.066799108432056</v>
@@ -23863,7 +23815,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.99031593940919</v>
+        <v>2.078537903749736</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.019146695220445</v>
@@ -23952,7 +23904,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.994103820642868</v>
+        <v>2.082256200800354</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.611976679235199</v>
@@ -24041,7 +23993,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.008524702812616</v>
+        <v>2.097610197211315</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>6.714398598528599</v>
@@ -24130,7 +24082,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.013371288786691</v>
+        <v>2.10415105910931</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.441370741330947</v>
@@ -24219,7 +24171,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.023795456385578</v>
+        <v>2.118524505976823</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.180829076534722</v>
@@ -24505,7 +24457,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.0066691051691</v>
+        <v>2.064514515453345</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7.175236616603133</v>
@@ -24594,7 +24546,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.003404334681943</v>
+        <v>2.064704695848109</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>6.795481869490946</v>
@@ -24683,7 +24635,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.999090425384059</v>
+        <v>2.060294027257988</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>7.010252722080951</v>
@@ -24772,7 +24724,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.99733386340814</v>
+        <v>2.056521797220517</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>6.451223048439075</v>
@@ -24861,7 +24813,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.99792638688283</v>
+        <v>2.054767539410816</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.090850040999721</v>
@@ -24950,7 +24902,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.997504403072153</v>
+        <v>2.053808063717025</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.933265891578484</v>
@@ -25039,7 +24991,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.995286830100148</v>
+        <v>2.055911171956829</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.040321865243116</v>
@@ -25128,7 +25080,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.996163029292193</v>
+        <v>2.05955011471392</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.286875556005501</v>
@@ -25217,7 +25169,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.997425672051425</v>
+        <v>2.062516150544688</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6.778775153068572</v>
@@ -25306,7 +25258,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.998061870566759</v>
+        <v>2.059798151912323</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>7.09284411255593</v>
@@ -25395,7 +25347,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.996189050286322</v>
+        <v>2.059700923087431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.501669254049746</v>
@@ -25484,7 +25436,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.994389663197927</v>
+        <v>2.060153486143705</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>6.605517531104185</v>
@@ -25573,7 +25525,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.996765095154759</v>
+        <v>2.059227821718255</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>6.107829115582061</v>
@@ -25662,7 +25614,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.997774278018927</v>
+        <v>2.059558714220068</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>6.253986140681564</v>
@@ -25751,7 +25703,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.99811772244073</v>
+        <v>2.059991522742599</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>6.835320998912815</v>
@@ -25840,7 +25792,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.996184476208196</v>
+        <v>2.057114260894635</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>6.87526491574881</v>
@@ -25929,7 +25881,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.994818011906405</v>
+        <v>2.055247370626044</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>6.809663311328253</v>
@@ -26018,7 +25970,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.995992908854174</v>
+        <v>2.050894669117008</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>6.880994797475632</v>
@@ -26107,7 +26059,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.998498679430349</v>
+        <v>2.051200732249104</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.343469258172461</v>
@@ -26196,7 +26148,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.999010539122627</v>
+        <v>2.054951020081833</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.068140637097951</v>
@@ -26285,7 +26237,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.99693373896512</v>
+        <v>2.054006366160733</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.231134485159937</v>
@@ -26374,7 +26326,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.996589357272777</v>
+        <v>2.055038026063533</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.373406943392604</v>
@@ -26463,7 +26415,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.996042845537774</v>
+        <v>2.053629765279911</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.687748311349621</v>
@@ -26552,7 +26504,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.994635846240072</v>
+        <v>2.051411694484591</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>6.689028644684761</v>
@@ -26641,7 +26593,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.99661789535758</v>
+        <v>2.053508055493555</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.27328582771481</v>
@@ -26730,7 +26682,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.998572363820079</v>
+        <v>2.053232064448923</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.801399112124704</v>
@@ -26819,7 +26771,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.998673751262419</v>
+        <v>2.053031885784783</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.245559673735015</v>
@@ -26908,7 +26860,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.003535811466443</v>
+        <v>2.058791934583494</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.023230625084006</v>
@@ -26997,7 +26949,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.003146254145252</v>
+        <v>2.061412208689006</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.918627800047762</v>
@@ -27086,7 +27038,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.000616492077684</v>
+        <v>2.062741697488319</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.662182477498037</v>
@@ -27175,7 +27127,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.00034876286164</v>
+        <v>2.067722816829989</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.019486196090115</v>
@@ -27264,7 +27216,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.002288290589144</v>
+        <v>2.064359884338981</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.948553609473232</v>
@@ -27353,7 +27305,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.005618781218667</v>
+        <v>2.064638241992718</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.169490957593139</v>
@@ -27442,7 +27394,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.006380235573494</v>
+        <v>2.063714860121667</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.500046196165227</v>
@@ -27531,7 +27483,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.006542588100538</v>
+        <v>2.063529472945856</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>6.015992111123185</v>
@@ -27620,7 +27572,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.99852195827282</v>
+        <v>2.053552827191963</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.199825152160369</v>
@@ -27709,7 +27661,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.000329695200466</v>
+        <v>2.057352047340008</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.517811947771055</v>
@@ -27798,7 +27750,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.002177392545021</v>
+        <v>2.057827641328285</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.089560154365539</v>
@@ -27887,7 +27839,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.003920880116274</v>
+        <v>2.060583465355869</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.686633612116538</v>
@@ -27976,7 +27928,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.001751402675037</v>
+        <v>2.061710875594866</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.18275903030976</v>
@@ -28065,7 +28017,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.002224550330439</v>
+        <v>2.064611959831964</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.685904695863533</v>
@@ -28154,7 +28106,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.005901365243527</v>
+        <v>2.068061684088466</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.810160421841212</v>
@@ -28243,7 +28195,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.002688964756784</v>
+        <v>2.066595987162789</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5.036118665525503</v>
@@ -28332,7 +28284,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.002006252765303</v>
+        <v>2.06473788022823</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.724797894129447</v>
@@ -28421,7 +28373,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.999544412384685</v>
+        <v>2.061261872499896</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.408529853523667</v>
@@ -28510,7 +28462,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.002279281582882</v>
+        <v>2.059831092709444</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.267467249752451</v>
@@ -28599,7 +28551,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.993725305242088</v>
+        <v>2.060375590705392</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.235403711241851</v>
@@ -28688,7 +28640,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.985097426134373</v>
+        <v>2.064105112512678</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.191906808738998</v>
@@ -28777,7 +28729,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.980380734077237</v>
+        <v>2.067057688149776</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.400958799524715</v>
@@ -28866,7 +28818,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.967724390044216</v>
+        <v>2.062113060454883</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.337634963842208</v>
@@ -28955,7 +28907,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.973993386866775</v>
+        <v>2.082542253142983</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.292216413464348</v>
@@ -29241,7 +29193,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.015961218319801</v>
+        <v>2.127907440642562</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7.223326399484034</v>
@@ -29330,7 +29282,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.019580963748648</v>
+        <v>2.131564756922845</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>6.660339955965277</v>
@@ -29419,7 +29371,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.016531867484863</v>
+        <v>2.128314457034</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.505858646497656</v>
@@ -29508,7 +29460,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.019835246643461</v>
+        <v>2.131048476660184</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.670592448993929</v>
@@ -29597,7 +29549,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.018887903181824</v>
+        <v>2.131029852397959</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.648384809937896</v>
@@ -29686,7 +29638,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.017703292530053</v>
+        <v>2.132449217351736</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>7.252443922707275</v>
@@ -29775,7 +29727,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.021456544502547</v>
+        <v>2.137184112904377</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>7.415103288972845</v>
@@ -29864,7 +29816,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.020807709241</v>
+        <v>2.13559693839206</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.556732320799235</v>
@@ -29953,7 +29905,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.022242031828029</v>
+        <v>2.135983644940767</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6.885919914691908</v>
@@ -30042,7 +29994,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.023164224048976</v>
+        <v>2.136415713268822</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>7.365113952647143</v>
@@ -30131,7 +30083,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.023926035035717</v>
+        <v>2.137460388818405</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.2134938644648</v>
@@ -30220,7 +30172,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.025891257210644</v>
+        <v>2.138423700776539</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.654025453776717</v>
@@ -30309,7 +30261,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.023579851050205</v>
+        <v>2.137085167111703</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.756790328152245</v>
@@ -30398,7 +30350,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.019861711306667</v>
+        <v>2.135330159958</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>6.187143390217614</v>
@@ -30487,7 +30439,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.022663542586487</v>
+        <v>2.136447502185587</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>7.544494165112474</v>
@@ -30576,7 +30528,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.023713760188044</v>
+        <v>2.136489498763339</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>7.963721900111882</v>
@@ -30665,7 +30617,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.022297999168948</v>
+        <v>2.135471274132997</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>7.44939032614576</v>
@@ -30754,7 +30706,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.021579874304236</v>
+        <v>2.133977789827974</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.290555180691531</v>
@@ -30843,7 +30795,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.021279264184071</v>
+        <v>2.132752062199856</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>6.615794270298798</v>
@@ -30932,7 +30884,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.020881990637281</v>
+        <v>2.13360212023576</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.271434409949995</v>
@@ -31021,7 +30973,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.02505857280644</v>
+        <v>2.135509591098172</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.146677393803748</v>
@@ -31110,7 +31062,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.026583570553593</v>
+        <v>2.136934876598934</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.983849089120548</v>
@@ -31199,7 +31151,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.028025610143547</v>
+        <v>2.138008069102312</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.377794012232552</v>
@@ -31288,7 +31240,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.025020438862009</v>
+        <v>2.135655031694388</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>5.973959725914828</v>
@@ -31377,7 +31329,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.028786824133729</v>
+        <v>2.138267282139134</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>7.178304800694608</v>
@@ -31466,7 +31418,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.024008458460539</v>
+        <v>2.132571899285158</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>7.16771395006954</v>
@@ -31555,7 +31507,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.018328992198494</v>
+        <v>2.127033731957277</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6.000532661798974</v>
@@ -31644,7 +31596,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.016944627244732</v>
+        <v>2.126062505980063</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.032891801646186</v>
@@ -31733,7 +31685,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.019227061617979</v>
+        <v>2.127183186921002</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.930850638682416</v>
@@ -31822,7 +31774,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.020005682814707</v>
+        <v>2.127971011096187</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.778984381267026</v>
@@ -31911,7 +31863,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.021021754780859</v>
+        <v>2.126867771647117</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.907704455234617</v>
@@ -32000,7 +31952,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.016493440188392</v>
+        <v>2.120102912563891</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.938721725942797</v>
@@ -32089,7 +32041,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.00718119472463</v>
+        <v>2.109738561720085</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.277654756360417</v>
@@ -32178,7 +32130,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.011486064565827</v>
+        <v>2.11131391093994</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.070800581872865</v>
@@ -32267,7 +32219,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.012947043290243</v>
+        <v>2.11064863371274</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>6.454676771920906</v>
@@ -32356,7 +32308,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.014244656227198</v>
+        <v>2.10971365286313</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.77178471881878</v>
@@ -32445,7 +32397,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.014909290292611</v>
+        <v>2.109013560334824</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.796434019964043</v>
@@ -32534,7 +32486,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.008688300480252</v>
+        <v>2.105920742782593</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.728548603505857</v>
@@ -32623,7 +32575,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.008334033395152</v>
+        <v>2.105433758385261</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.231444703061838</v>
@@ -32712,7 +32664,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.011105356016322</v>
+        <v>2.106751347285234</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.208330080026359</v>
@@ -32801,7 +32753,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.018370707473942</v>
+        <v>2.110764073173996</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>6.328609303798386</v>
@@ -32890,7 +32842,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.032603688169912</v>
+        <v>2.120948342322696</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.005124525299952</v>
@@ -32979,7 +32931,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.03729360279802</v>
+        <v>2.121956987329415</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.806148631087845</v>
@@ -33068,7 +33020,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.041827066706159</v>
+        <v>2.123292983138972</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.160153529523238</v>
@@ -33157,7 +33109,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.044915979649289</v>
+        <v>2.122503409709932</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>5.232922330560942</v>
@@ -33246,7 +33198,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.043205297880453</v>
+        <v>2.120873878047978</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.5086486563314</v>
@@ -33335,7 +33287,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.040146060531651</v>
+        <v>2.123576159973738</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.984875734860515</v>
@@ -33424,7 +33376,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.04804263890967</v>
+        <v>2.130411273845817</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.596820156997111</v>
@@ -33513,7 +33465,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.049505417665957</v>
+        <v>2.13208620704484</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.641824275871884</v>
@@ -33602,7 +33554,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.042014018835505</v>
+        <v>2.125786223482831</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.709397458052754</v>
@@ -33691,7 +33643,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.044209311837658</v>
+        <v>2.128562935266182</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.942804452846853</v>
